--- a/biology/Zoologie/Hallopus/Hallopus.xlsx
+++ b/biology/Zoologie/Hallopus/Hallopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hallopus victor
-Hallopus est un genre fossile de « reptiles » crocodylomorphes de la famille également éteinte des Hallopodidae[2]. 
+Hallopus est un genre fossile de « reptiles » crocodylomorphes de la famille également éteinte des Hallopodidae. 
 Une seule espèce est rattachée au genre : Hallopus victor, décrite à l'origine par Othniel Charles Marsh, en 1881, sous le nom de Nanosaurus victor.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hallopus a été d'abord été classé par Othniel Charles Marsh, son inventeur, comme un dinosaure, avant d'être rapproché des crocodiliens, puis des crocodylomorphes « sphénosuchiens »[3]. Une étude phylogénétique de 2017 le place comme un crocodylomorphe basal, le genre type de la petite famille des Hallopodidae[2].
-Ses fossiles ne sont connus que sur un site du Colorado aux États-Unis. Ils ont été mis au jour dans des sédiments du Jurassique supérieur, du Kimméridgien, soit il y a environ entre 154,8 et 149,2 millions d'années[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hallopus a été d'abord été classé par Othniel Charles Marsh, son inventeur, comme un dinosaure, avant d'être rapproché des crocodiliens, puis des crocodylomorphes « sphénosuchiens ». Une étude phylogénétique de 2017 le place comme un crocodylomorphe basal, le genre type de la petite famille des Hallopodidae.
+Ses fossiles ne sont connus que sur un site du Colorado aux États-Unis. Ils ont été mis au jour dans des sédiments du Jurassique supérieur, du Kimméridgien, soit il y a environ entre 154,8 et 149,2 millions d'années.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un crocodylomorphe basal de taille modeste, de l'ordre de 1 mètre, avec une morphologie apparente de crocodiles « hauts sur pattes ».
 </t>
@@ -576,10 +592,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sein de la famille des Hallopodidae, Hallopus est placé en groupe frère du genre contemporain Macelognathus qui vivait également dans ce qui est aujourd'hui l'Ouest américain (Colorado et Wyoming)[2],[4].
-Il est assez proche également du troisième genre d'Hallopodidae : Almadasuchus, connu dans le Jurassique supérieur d’Argentine[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein de la famille des Hallopodidae, Hallopus est placé en groupe frère du genre contemporain Macelognathus qui vivait également dans ce qui est aujourd'hui l'Ouest américain (Colorado et Wyoming),.
+Il est assez proche également du troisième genre d'Hallopodidae : Almadasuchus, connu dans le Jurassique supérieur d’Argentine.
 </t>
         </is>
       </c>
